--- a/cadastro_grupos/Share of Voice - Grupos_TRATADO.xlsx
+++ b/cadastro_grupos/Share of Voice - Grupos_TRATADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suporte\Desktop\whatsapp\cadastro_grupos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE61A1-B177-4E24-98F7-7DFB21B1B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3286C-942E-4635-92D2-87334B84E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF832B84-765A-4C96-AABE-F181674363E1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="724">
   <si>
     <t>cust_id</t>
   </si>
@@ -2204,6 +2204,21 @@
   </si>
   <si>
     <t>https://chat.whatsapp.com/JRsewVssOZsKY1OvdyAf3s</t>
+  </si>
+  <si>
+    <t>553499359585-1626705466@g.us</t>
+  </si>
+  <si>
+    <t>120363358188083030@g.us</t>
+  </si>
+  <si>
+    <t>120363147672890533@g.us</t>
+  </si>
+  <si>
+    <t>120363403071832784@g.us</t>
+  </si>
+  <si>
+    <t>Grupo Cheio</t>
   </si>
 </sst>
 </file>
@@ -2577,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B52E43-DB06-415B-8120-31B874E56436}">
   <dimension ref="A1:G432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2842,7 +2857,7 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4702,7 +4717,7 @@
         <v>95</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>723</v>
       </c>
       <c r="G92" t="s">
         <v>715</v>
@@ -5050,7 +5065,7 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -6841,10 +6856,7 @@
         <v>188</v>
       </c>
       <c r="F185" t="s">
-        <v>8</v>
-      </c>
-      <c r="G185" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -10179,7 +10191,7 @@
         <v>8</v>
       </c>
       <c r="G330" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -11768,7 +11780,7 @@
         <v>392</v>
       </c>
       <c r="F400" t="s">
-        <v>8</v>
+        <v>723</v>
       </c>
       <c r="G400" t="s">
         <v>715</v>
@@ -12481,6 +12493,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G432" xr:uid="{11B52E43-DB06-415B-8120-31B874E56436}"/>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{6444882A-85D8-4A1D-B489-AAD91B39F039}"/>
     <hyperlink ref="E19" r:id="rId2" xr:uid="{19AA6C44-D22D-435D-806F-1A78FC583F5C}"/>

--- a/cadastro_grupos/Share of Voice - Grupos_TRATADO.xlsx
+++ b/cadastro_grupos/Share of Voice - Grupos_TRATADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suporte\Desktop\whatsapp\cadastro_grupos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3286C-942E-4635-92D2-87334B84E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA7C39-C7AA-494E-8ED7-8DBE001D7AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF832B84-765A-4C96-AABE-F181674363E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$432</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$432</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="916">
   <si>
     <t>cust_id</t>
   </si>
@@ -2219,16 +2219,600 @@
   </si>
   <si>
     <t>Grupo Cheio</t>
+  </si>
+  <si>
+    <t>nome_grupo</t>
+  </si>
+  <si>
+    <t>PROMOS DA DAY GRUPO 40🛍️</t>
+  </si>
+  <si>
+    <t>ACHADINHO 🛍️ #16</t>
+  </si>
+  <si>
+    <t>Promos e dicas da Jô #3</t>
+  </si>
+  <si>
+    <t>#37 🛍💰Achadinhosdepromo💛</t>
+  </si>
+  <si>
+    <t>Promoções da Hora 11</t>
+  </si>
+  <si>
+    <t>Achados da Lully 15</t>
+  </si>
+  <si>
+    <t>ACHADOS DA MALU #16</t>
+  </si>
+  <si>
+    <t>#14 PromoBabykids</t>
+  </si>
+  <si>
+    <t>Ofertas da Casa Moderna #43</t>
+  </si>
+  <si>
+    <t>@thatynhapromo 5</t>
+  </si>
+  <si>
+    <t>Promos Enxoval - Gi 🏠 #13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UduLuiz VII - Cupons e ofertas: Shopee, Shein, Aliexpress, Mercado Livre </t>
+  </si>
+  <si>
+    <t>GRUPÃO MUQUIRANAS#19</t>
+  </si>
+  <si>
+    <t>PROMO LOVERS 🛍️  #14</t>
+  </si>
+  <si>
+    <t>Achados de Lara #21</t>
+  </si>
+  <si>
+    <t>Mi&amp;Promo 🛍️💜 #8</t>
+  </si>
+  <si>
+    <t>Cupons e Ofertas #SuperDicas 🎟️🛒 #111</t>
+  </si>
+  <si>
+    <t>🌸 BEAUTY PROMO 59 🌸</t>
+  </si>
+  <si>
+    <t>Tudo On Promoções #3</t>
+  </si>
+  <si>
+    <t>Ofertas da Hora do Almoço 12🛍️</t>
+  </si>
+  <si>
+    <t>GIRLSBUGS SEM CHAT 2️⃣6️⃣</t>
+  </si>
+  <si>
+    <t>Indicações do Gui</t>
+  </si>
+  <si>
+    <t>Amiga, Compra! 10</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA #25 🛍️</t>
+  </si>
+  <si>
+    <t>Cout 09 🇧🇷 Promoções e Info</t>
+  </si>
+  <si>
+    <t>PROMOS 45 💗</t>
+  </si>
+  <si>
+    <t>Desconto Legal</t>
+  </si>
+  <si>
+    <t>BR Descontão  - 1</t>
+  </si>
+  <si>
+    <t>15# PROMO DE HOJEE 💜</t>
+  </si>
+  <si>
+    <t>Grupo de Promoções &amp; Descontos | Reduza</t>
+  </si>
+  <si>
+    <t>🔥 OFERTA SECRETA VIP 🔥</t>
+  </si>
+  <si>
+    <t>3- Ofertas Imperdíveis 🔥</t>
+  </si>
+  <si>
+    <t>Promos do Guia Produto #1</t>
+  </si>
+  <si>
+    <t>PROMO 35 💗</t>
+  </si>
+  <si>
+    <t>Promos Úteis 🛒 #2</t>
+  </si>
+  <si>
+    <t>Comunidade Moto Filé</t>
+  </si>
+  <si>
+    <t>A PROMO IMPERDÍVEL 25 🛍️✨</t>
+  </si>
+  <si>
+    <t>Kah Indica</t>
+  </si>
+  <si>
+    <t>Promoções e Descontos 26</t>
+  </si>
+  <si>
+    <t>G1 PROMOÇÃO KIDS BRASIL</t>
+  </si>
+  <si>
+    <t>Promoções do TEC #10</t>
+  </si>
+  <si>
+    <t>👶🏻 PromoBaby | 24</t>
+  </si>
+  <si>
+    <t>Ela Compra 08 🩷✨</t>
+  </si>
+  <si>
+    <t>[JTECH] Promoções Gamer #102</t>
+  </si>
+  <si>
+    <t>🛍 Sergipe Ofertas #25</t>
+  </si>
+  <si>
+    <t>Mamãe tá ON Promoções 7</t>
+  </si>
+  <si>
+    <t>🛒 Promoções do Bita - 💸 #32</t>
+  </si>
+  <si>
+    <t>MILPROMOSBELEZA</t>
+  </si>
+  <si>
+    <t>Tudo Em Microfones GRUPO 5</t>
+  </si>
+  <si>
+    <t>PROMO DA LAILA 3 🛍️</t>
+  </si>
+  <si>
+    <t>Guga Aprova ✅ DESCONTOS - 20</t>
+  </si>
+  <si>
+    <t>Guia de Compras 218</t>
+  </si>
+  <si>
+    <t>⚫ VICIADOS EM DESCONTOS 11 ⚫</t>
+  </si>
+  <si>
+    <t>aki promoções - 91</t>
+  </si>
+  <si>
+    <t>Economizeiro 3</t>
+  </si>
+  <si>
+    <t>LINKS DO SONNORA - ABERTO</t>
+  </si>
+  <si>
+    <t>@Promoanabeltran 37 💖 Beleza</t>
+  </si>
+  <si>
+    <t>Ofertas do Albergoni #014</t>
+  </si>
+  <si>
+    <t>Top Ofertas Todo Dia 9</t>
+  </si>
+  <si>
+    <t>Fórmula Ideal Fit - [ 15 ]</t>
+  </si>
+  <si>
+    <t>#5 PROMO ENXOVAL MINIMALISTA 🖤</t>
+  </si>
+  <si>
+    <t>PromoON 00</t>
+  </si>
+  <si>
+    <t>@achadinhoscomcarol 🛍️ 14</t>
+  </si>
+  <si>
+    <t>😱 Promoções e Cupons 🔥</t>
+  </si>
+  <si>
+    <t>Promos de Enxoval 🏡 #12</t>
+  </si>
+  <si>
+    <t>Best Promos BR #3</t>
+  </si>
+  <si>
+    <t>A PROMO PERFEITA 13✨</t>
+  </si>
+  <si>
+    <t>Promo desconto cupons 10</t>
+  </si>
+  <si>
+    <t>✨ Cantinho das Promos PV 7 🛍️</t>
+  </si>
+  <si>
+    <t>PROMO 42 🧜🏼‍♀️💘🛍️</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA #26🏠 •  @homedeamiga</t>
+  </si>
+  <si>
+    <t>Promos Diversas B14</t>
+  </si>
+  <si>
+    <t>PROMOS @bizu_paracasa #30</t>
+  </si>
+  <si>
+    <t>ACHADO NA PROMO 3</t>
+  </si>
+  <si>
+    <t>Home de Ofertas ✨🏠 | #38</t>
+  </si>
+  <si>
+    <t>Marcelo Casa Eletro OFERTAS</t>
+  </si>
+  <si>
+    <t>promoções para pobres #698</t>
+  </si>
+  <si>
+    <t>Achadinhos da Promo 2️⃣7️⃣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#27 Promoções Especialista Utilitário </t>
+  </si>
+  <si>
+    <t>Achados da Lully 14</t>
+  </si>
+  <si>
+    <t>Comprei na Promo #6</t>
+  </si>
+  <si>
+    <t>ACHADOS DA RAINA #13</t>
+  </si>
+  <si>
+    <t>A Rainha das Promoções 25</t>
+  </si>
+  <si>
+    <t>6 @promodegrife BELEZA</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA #65</t>
+  </si>
+  <si>
+    <t>#30 Achadinhos SHOPEE, SHEIN , MAGALU, MERCADO LIVRE.🥰</t>
+  </si>
+  <si>
+    <t>Achadinhos da Vivih 💕 🛍️#39</t>
+  </si>
+  <si>
+    <t>💥Querido Desconto 108</t>
+  </si>
+  <si>
+    <t>2 SHEIN e C&amp;A by @maryajcs 🛍️✨🤩</t>
+  </si>
+  <si>
+    <t>ACHADINHOS DA DRI 15</t>
+  </si>
+  <si>
+    <t>✨Cacei e Achei Promos #13</t>
+  </si>
+  <si>
+    <t>✨️ PROMOS DA TAMI #4</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA ✨️ #2 - @promochique_</t>
+  </si>
+  <si>
+    <t>Encontrei na web promoções #62</t>
+  </si>
+  <si>
+    <t>Achadinhos #100</t>
+  </si>
+  <si>
+    <t>PROMO DA LARI | 88 🛍️✨</t>
+  </si>
+  <si>
+    <t>65 • VIP GATAS DAS PROMO 💜</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA 🛍️ #1 - @encontreiamigas</t>
+  </si>
+  <si>
+    <t>G&amp;L Promoções 50 🛍️🛒</t>
+  </si>
+  <si>
+    <t>Ofertas Encontrei - #15 🛍️</t>
+  </si>
+  <si>
+    <t>Ofertas de TUDO - MB07</t>
+  </si>
+  <si>
+    <t>Acheipravocê#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#103 ACHADOS DA TAMY </t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA ✨🛍️ #10 - @achadindeluxo</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA #11🥰</t>
+  </si>
+  <si>
+    <t>Promo e Afins 6 💜</t>
+  </si>
+  <si>
+    <t>táBaratasso ✅ 214</t>
+  </si>
+  <si>
+    <t>ACHADOS DO DIA N 19</t>
+  </si>
+  <si>
+    <t>MESDEPROMO #25</t>
+  </si>
+  <si>
+    <t>Promoções do dia #14 🛍️ @baratinhosimperdiveis</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA #27 🛍️ @achadosdatai.br</t>
+  </si>
+  <si>
+    <t>Mãe, Economizei! Promos e Cupons</t>
+  </si>
+  <si>
+    <t>Achadinhos Ofertou - 044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#35 Grupo de Ofertas </t>
+  </si>
+  <si>
+    <t>Ofertas Meuapê26b #12</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA 🔥✨️🛍</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES E LINKS #61</t>
+  </si>
+  <si>
+    <t>PROMOS DO DIA✨ #1</t>
+  </si>
+  <si>
+    <t>PROMOS DA LUH 065</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA 🛍️ #2 | @dicasdeachadinhos.br</t>
+  </si>
+  <si>
+    <t>#2 PROMOÇÃO DO DIA | Achados da Isa 🚨</t>
+  </si>
+  <si>
+    <t>PROMOS &amp; ACHADINHOS</t>
+  </si>
+  <si>
+    <t>Grupo de ofertinhas #08</t>
+  </si>
+  <si>
+    <t>Modas e Achadinhos #2</t>
+  </si>
+  <si>
+    <t>🔥 PROMOS da Paty #01</t>
+  </si>
+  <si>
+    <t>#1 Achadinhos da Dona Cegonha</t>
+  </si>
+  <si>
+    <t>#5 Achadinhos Casa e Decoração</t>
+  </si>
+  <si>
+    <t>Promos da Ly #3✨</t>
+  </si>
+  <si>
+    <t>Paraíso dos Achadinhos #1</t>
+  </si>
+  <si>
+    <t>#31 Promos de Moda, Beleza e Cupons! - Promoções do Amor!</t>
+  </si>
+  <si>
+    <t>PROMO E DICAS 🧡cupons e +</t>
+  </si>
+  <si>
+    <t>GRUPO DE PROMOÇÕES #04</t>
+  </si>
+  <si>
+    <t>PromodaCaren 5 🔒</t>
+  </si>
+  <si>
+    <t>Oferta relâmpago #1</t>
+  </si>
+  <si>
+    <t>Promos Danilo 4</t>
+  </si>
+  <si>
+    <t>PROMOS da IANNE 🧡16</t>
+  </si>
+  <si>
+    <t>PROMOS DA NATH 🛍️🎀 [35]</t>
+  </si>
+  <si>
+    <t>MESDEPROMO #23</t>
+  </si>
+  <si>
+    <t>SNAKE PROMOS 2 🐍</t>
+  </si>
+  <si>
+    <t>Promogrid Promoções</t>
+  </si>
+  <si>
+    <t>⚜ SUPER PROMO ⚜ 5⃣</t>
+  </si>
+  <si>
+    <t>🟠((EXCLUSIVO SHOPEE 3️⃣)) @promo.damahii</t>
+  </si>
+  <si>
+    <t>PROMOS DA DEEKO 💕 #04</t>
+  </si>
+  <si>
+    <t>Achadinhos e Promos 🛍😱 #2</t>
+  </si>
+  <si>
+    <t>ACHADOS DA MARI #14</t>
+  </si>
+  <si>
+    <t>PROMO DO DIA 🛍️ | #8 @focanacompra</t>
+  </si>
+  <si>
+    <t>Doguinho Promoções 🐶#12</t>
+  </si>
+  <si>
+    <t>Grupo de Ofertas Clube A Gazeta</t>
+  </si>
+  <si>
+    <t>CLUBE DO DESCONTO #13</t>
+  </si>
+  <si>
+    <t>#7 grupo - Bem-vinda ao universo feminino 💄- Vestindo bem, pagando pouco 🛍️💝🔗</t>
+  </si>
+  <si>
+    <t>Grupo de ofertas 🛒🛍️ #27</t>
+  </si>
+  <si>
+    <t>PROMOS DO DIA #02 @achadosginger</t>
+  </si>
+  <si>
+    <t>@Promosdadaii 🛍️#4</t>
+  </si>
+  <si>
+    <t>#5 PROMOÇÕES E DESCONTOS 🛍️🤑</t>
+  </si>
+  <si>
+    <t>@ComprinhasAmiga #05✨</t>
+  </si>
+  <si>
+    <t>Ofertas do dia #3 🛍️</t>
+  </si>
+  <si>
+    <t>🛒 Achados da Lalá Grupo #3</t>
+  </si>
+  <si>
+    <t>Universo das Promos💖✨34</t>
+  </si>
+  <si>
+    <t>Promos da Mila #10</t>
+  </si>
+  <si>
+    <t>18.🔥PROMOS @thai.torel🔥</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA #14</t>
+  </si>
+  <si>
+    <t>Dona Economia - Promoções #8</t>
+  </si>
+  <si>
+    <t>Grupo de Promoções e Cupons 🛍️ #05</t>
+  </si>
+  <si>
+    <t>#6 PROMOS DO DIA ✨🛍</t>
+  </si>
+  <si>
+    <t>Achadinhos da Becca 🛍Promos e Achados💞</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES &amp; CUPONS 💖✨ #1</t>
+  </si>
+  <si>
+    <t>SUPER OFERTA #17</t>
+  </si>
+  <si>
+    <t>Moda | Casa | Kids✨️17</t>
+  </si>
+  <si>
+    <t>Achadinhos da Carol</t>
+  </si>
+  <si>
+    <t>PECHINCHAS DA CRIS 🧡🛍️#1</t>
+  </si>
+  <si>
+    <t>Grupo de Achadinhos #1</t>
+  </si>
+  <si>
+    <t>0005 Clube Promos 21</t>
+  </si>
+  <si>
+    <t>Achadinhos das primas 💕🛍️#9#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEE ACHADOS </t>
+  </si>
+  <si>
+    <t>Decorando_comestilo❤️</t>
+  </si>
+  <si>
+    <t>Promos da Seguidora 8</t>
+  </si>
+  <si>
+    <t>🚨 PROMOÇÃO DO DIA 💸</t>
+  </si>
+  <si>
+    <t>#193 Grupo Vip de Ofertas 🛒‼️</t>
+  </si>
+  <si>
+    <t>Celulares-JersuOfertas-E4</t>
+  </si>
+  <si>
+    <t>💥💥 TÁ BUGADO!!! 4⃣9⃣</t>
+  </si>
+  <si>
+    <t>OFERTAS Rodrigo Moreira #19</t>
+  </si>
+  <si>
+    <t>NintendoBarato.com.br #17</t>
+  </si>
+  <si>
+    <t>Especialista em TI #11</t>
+  </si>
+  <si>
+    <t>Inova Leo Ofertas Geral 1</t>
+  </si>
+  <si>
+    <t>💻Qual Notebook Comprar?16</t>
+  </si>
+  <si>
+    <t>Só Promoções do dia #53</t>
+  </si>
+  <si>
+    <t>🛍💥 TEM PROMÔ! 2️⃣3️⃣</t>
+  </si>
+  <si>
+    <t>Bizu das Promoções 53</t>
+  </si>
+  <si>
+    <t>20 - PEPERAIO HARDWARE OFERTAS</t>
+  </si>
+  <si>
+    <t>Babypromokids 115 👶🏻 A23</t>
+  </si>
+  <si>
+    <t>Manual de Ofertas - Eletrônicos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2251,13 +2835,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2589,11 +3176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B52E43-DB06-415B-8120-31B874E56436}">
-  <dimension ref="A1:G432"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48CD17A-F0EB-42D1-9B05-DD3C025A0FCA}">
+  <dimension ref="A1:H432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,9 +3192,10 @@
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2629,8 +3217,11 @@
       <c r="G1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>84848607</v>
       </c>
@@ -2652,8 +3243,11 @@
       <c r="G2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>94733098</v>
       </c>
@@ -2675,8 +3269,11 @@
       <c r="G3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>224168003</v>
       </c>
@@ -2698,8 +3295,11 @@
       <c r="G4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>224168003</v>
       </c>
@@ -2718,11 +3318,11 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>224168003</v>
       </c>
@@ -2741,11 +3341,11 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>288063877</v>
       </c>
@@ -2767,8 +3367,11 @@
       <c r="G7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>473343832</v>
       </c>
@@ -2790,8 +3393,11 @@
       <c r="G8" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1299080285</v>
       </c>
@@ -2813,8 +3419,11 @@
       <c r="G9" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1334764746</v>
       </c>
@@ -2836,8 +3445,11 @@
       <c r="G10" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1374758175</v>
       </c>
@@ -2859,8 +3471,11 @@
       <c r="G11" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1399249654</v>
       </c>
@@ -2882,8 +3497,11 @@
       <c r="G12" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1428402957</v>
       </c>
@@ -2905,8 +3523,11 @@
       <c r="G13" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1438016577</v>
       </c>
@@ -2928,8 +3549,11 @@
       <c r="G14" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1463526269</v>
       </c>
@@ -2951,8 +3575,11 @@
       <c r="G15" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1528968155</v>
       </c>
@@ -2974,8 +3601,11 @@
       <c r="G16" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1531640488</v>
       </c>
@@ -2997,8 +3627,11 @@
       <c r="G17" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1880667258</v>
       </c>
@@ -3020,8 +3653,11 @@
       <c r="G18" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2313173804</v>
       </c>
@@ -3043,8 +3679,11 @@
       <c r="G19" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2418855877</v>
       </c>
@@ -3066,8 +3705,11 @@
       <c r="G20" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>129828195</v>
       </c>
@@ -3089,8 +3731,11 @@
       <c r="G21" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>132598358</v>
       </c>
@@ -3112,8 +3757,11 @@
       <c r="G22" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>229491441</v>
       </c>
@@ -3135,8 +3783,11 @@
       <c r="G23" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>678565811</v>
       </c>
@@ -3158,8 +3809,11 @@
       <c r="G24" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1487189700</v>
       </c>
@@ -3181,8 +3835,11 @@
       <c r="G25" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2057503925</v>
       </c>
@@ -3204,8 +3861,11 @@
       <c r="G26" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1334764746</v>
       </c>
@@ -3227,8 +3887,11 @@
       <c r="G27" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>231841011</v>
       </c>
@@ -3250,8 +3913,11 @@
       <c r="G28" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>676651691</v>
       </c>
@@ -3273,8 +3939,11 @@
       <c r="G29" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1167640603</v>
       </c>
@@ -3296,8 +3965,11 @@
       <c r="G30" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1369622787</v>
       </c>
@@ -3319,8 +3991,11 @@
       <c r="G31" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1890922253</v>
       </c>
@@ -3342,8 +4017,11 @@
       <c r="G32" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>229837054</v>
       </c>
@@ -3365,8 +4043,11 @@
       <c r="G33" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>161561413</v>
       </c>
@@ -3388,8 +4069,11 @@
       <c r="G34" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2359144247</v>
       </c>
@@ -3411,8 +4095,11 @@
       <c r="G35" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1813105314</v>
       </c>
@@ -3434,8 +4121,11 @@
       <c r="G36" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1377978276</v>
       </c>
@@ -3457,8 +4147,11 @@
       <c r="G37" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1494770433</v>
       </c>
@@ -3480,8 +4173,11 @@
       <c r="G38" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1478707361</v>
       </c>
@@ -3503,8 +4199,11 @@
       <c r="G39" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>512970471</v>
       </c>
@@ -3526,8 +4225,11 @@
       <c r="G40" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1408672391</v>
       </c>
@@ -3549,8 +4251,11 @@
       <c r="G41" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1446956733</v>
       </c>
@@ -3572,8 +4277,11 @@
       <c r="G42" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>226046758</v>
       </c>
@@ -3595,8 +4303,11 @@
       <c r="G43" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>150242200</v>
       </c>
@@ -3618,8 +4329,11 @@
       <c r="G44" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>269721398</v>
       </c>
@@ -3641,8 +4355,11 @@
       <c r="G45" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1516990091</v>
       </c>
@@ -3664,8 +4381,11 @@
       <c r="G46" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>379432988</v>
       </c>
@@ -3687,8 +4407,11 @@
       <c r="G47" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1433577301</v>
       </c>
@@ -3710,8 +4433,11 @@
       <c r="G48" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1433463620</v>
       </c>
@@ -3733,8 +4459,11 @@
       <c r="G49" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2351478061</v>
       </c>
@@ -3756,8 +4485,11 @@
       <c r="G50" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>74339904</v>
       </c>
@@ -3779,8 +4511,11 @@
       <c r="G51" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1342941619</v>
       </c>
@@ -3802,8 +4537,11 @@
       <c r="G52" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1128477483</v>
       </c>
@@ -3825,8 +4563,11 @@
       <c r="G53" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44352982</v>
       </c>
@@ -3848,8 +4589,11 @@
       <c r="G54" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1536298884</v>
       </c>
@@ -3871,8 +4615,11 @@
       <c r="G55" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>690775790</v>
       </c>
@@ -3894,8 +4641,11 @@
       <c r="G56" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>269337304</v>
       </c>
@@ -3917,8 +4667,11 @@
       <c r="G57" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1541281221</v>
       </c>
@@ -3940,8 +4693,11 @@
       <c r="G58" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>618183409</v>
       </c>
@@ -3963,8 +4719,11 @@
       <c r="G59" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1954038151</v>
       </c>
@@ -3986,8 +4745,11 @@
       <c r="G60" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>744048622</v>
       </c>
@@ -4009,8 +4771,11 @@
       <c r="G61" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>79019768</v>
       </c>
@@ -4032,8 +4797,11 @@
       <c r="G62" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>521028663</v>
       </c>
@@ -4055,8 +4823,11 @@
       <c r="G63" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1578049413</v>
       </c>
@@ -4078,8 +4849,11 @@
       <c r="G64" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1442794904</v>
       </c>
@@ -4101,8 +4875,11 @@
       <c r="G65" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136554975</v>
       </c>
@@ -4124,8 +4901,11 @@
       <c r="G66" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1550052320</v>
       </c>
@@ -4147,8 +4927,11 @@
       <c r="G67" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>92792646</v>
       </c>
@@ -4170,8 +4953,11 @@
       <c r="G68" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>192874049</v>
       </c>
@@ -4193,8 +4979,11 @@
       <c r="G69" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>481509072</v>
       </c>
@@ -4216,8 +5005,11 @@
       <c r="G70" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>303223557</v>
       </c>
@@ -4239,8 +5031,11 @@
       <c r="G71" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5160092</v>
       </c>
@@ -4262,8 +5057,11 @@
       <c r="G72" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1437278515</v>
       </c>
@@ -4285,8 +5083,11 @@
       <c r="G73" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>48673895</v>
       </c>
@@ -4308,8 +5109,11 @@
       <c r="G74" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1465247461</v>
       </c>
@@ -4331,8 +5135,11 @@
       <c r="G75" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>205028015</v>
       </c>
@@ -4354,8 +5161,11 @@
       <c r="G76" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1381562962</v>
       </c>
@@ -4377,8 +5187,11 @@
       <c r="G77" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>358402522</v>
       </c>
@@ -4400,8 +5213,11 @@
       <c r="G78" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1457441247</v>
       </c>
@@ -4423,8 +5239,11 @@
       <c r="G79" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1381583566</v>
       </c>
@@ -4446,8 +5265,11 @@
       <c r="G80" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1440823950</v>
       </c>
@@ -4469,8 +5291,11 @@
       <c r="G81" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>83966270</v>
       </c>
@@ -4492,8 +5317,11 @@
       <c r="G82" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1029902351</v>
       </c>
@@ -4515,8 +5343,11 @@
       <c r="G83" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1947955373</v>
       </c>
@@ -4538,8 +5369,11 @@
       <c r="G84" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>73418100</v>
       </c>
@@ -4561,8 +5395,11 @@
       <c r="G85" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>408274567</v>
       </c>
@@ -4584,8 +5421,11 @@
       <c r="G86" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1359646788</v>
       </c>
@@ -4607,8 +5447,11 @@
       <c r="G87" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>47897711</v>
       </c>
@@ -4630,8 +5473,11 @@
       <c r="G88" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5399188</v>
       </c>
@@ -4653,8 +5499,11 @@
       <c r="G89" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1383038146</v>
       </c>
@@ -4676,8 +5525,11 @@
       <c r="G90" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1639459856</v>
       </c>
@@ -4699,8 +5551,11 @@
       <c r="G91" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2221972417</v>
       </c>
@@ -4722,8 +5577,11 @@
       <c r="G92" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1439663675</v>
       </c>
@@ -4745,8 +5603,11 @@
       <c r="G93" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>490589317</v>
       </c>
@@ -4768,8 +5629,11 @@
       <c r="G94" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>30107921</v>
       </c>
@@ -4791,8 +5655,11 @@
       <c r="G95" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1439548649</v>
       </c>
@@ -4814,8 +5681,11 @@
       <c r="G96" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1756402797</v>
       </c>
@@ -4837,8 +5707,11 @@
       <c r="G97" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>83215915</v>
       </c>
@@ -4860,8 +5733,11 @@
       <c r="G98" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>51908994</v>
       </c>
@@ -4883,8 +5759,11 @@
       <c r="G99" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2009130689</v>
       </c>
@@ -4906,8 +5785,11 @@
       <c r="G100" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2018031282</v>
       </c>
@@ -4929,8 +5811,11 @@
       <c r="G101" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1453179131</v>
       </c>
@@ -4952,8 +5837,11 @@
       <c r="G102" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1485911737</v>
       </c>
@@ -4975,8 +5863,11 @@
       <c r="G103" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>448250295</v>
       </c>
@@ -4998,8 +5889,11 @@
       <c r="G104" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1426600144</v>
       </c>
@@ -5021,8 +5915,11 @@
       <c r="G105" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>257830843</v>
       </c>
@@ -5044,8 +5941,11 @@
       <c r="G106" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>147294155</v>
       </c>
@@ -5067,8 +5967,11 @@
       <c r="G107" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>342729046</v>
       </c>
@@ -5090,8 +5993,11 @@
       <c r="G108" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>241322914</v>
       </c>
@@ -5113,8 +6019,11 @@
       <c r="G109" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1422595957</v>
       </c>
@@ -5136,8 +6045,11 @@
       <c r="G110" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>807123036</v>
       </c>
@@ -5159,8 +6071,11 @@
       <c r="G111" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1539409111</v>
       </c>
@@ -5182,8 +6097,11 @@
       <c r="G112" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1490703847</v>
       </c>
@@ -5205,8 +6123,11 @@
       <c r="G113" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>107916024</v>
       </c>
@@ -5228,8 +6149,11 @@
       <c r="G114" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1856859073</v>
       </c>
@@ -5251,8 +6175,11 @@
       <c r="G115" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>200355621</v>
       </c>
@@ -5274,8 +6201,11 @@
       <c r="G116" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1444457359</v>
       </c>
@@ -5297,8 +6227,11 @@
       <c r="G117" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>167259214</v>
       </c>
@@ -5320,8 +6253,11 @@
       <c r="G118" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>530861291</v>
       </c>
@@ -5343,8 +6279,11 @@
       <c r="G119" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>221861528</v>
       </c>
@@ -5366,8 +6305,11 @@
       <c r="G120" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1217794331</v>
       </c>
@@ -5389,8 +6331,11 @@
       <c r="G121" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1517396466</v>
       </c>
@@ -5412,8 +6357,11 @@
       <c r="G122" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2200130866</v>
       </c>
@@ -5435,8 +6383,11 @@
       <c r="G123" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>742314482</v>
       </c>
@@ -5458,8 +6409,11 @@
       <c r="G124" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>152436288</v>
       </c>
@@ -5481,8 +6435,11 @@
       <c r="G125" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1434017443</v>
       </c>
@@ -5504,8 +6461,11 @@
       <c r="G126" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1297399555</v>
       </c>
@@ -5527,8 +6487,11 @@
       <c r="G127" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1441090684</v>
       </c>
@@ -5550,8 +6513,11 @@
       <c r="G128" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>202884905</v>
       </c>
@@ -5573,8 +6539,11 @@
       <c r="G129" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>183440224</v>
       </c>
@@ -5596,8 +6565,11 @@
       <c r="G130" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>238471146</v>
       </c>
@@ -5619,8 +6591,11 @@
       <c r="G131" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>141495725</v>
       </c>
@@ -5642,8 +6617,11 @@
       <c r="G132" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>49674458</v>
       </c>
@@ -5665,8 +6643,11 @@
       <c r="G133" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1799164964</v>
       </c>
@@ -5688,8 +6669,11 @@
       <c r="G134" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2046114897</v>
       </c>
@@ -5711,8 +6695,11 @@
       <c r="G135" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1473563772</v>
       </c>
@@ -5734,8 +6721,11 @@
       <c r="G136" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1436446356</v>
       </c>
@@ -5757,8 +6747,11 @@
       <c r="G137" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>615723245</v>
       </c>
@@ -5780,8 +6773,11 @@
       <c r="G138" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1462250546</v>
       </c>
@@ -5803,8 +6799,11 @@
       <c r="G139" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>103699751</v>
       </c>
@@ -5826,8 +6825,11 @@
       <c r="G140" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1391252882</v>
       </c>
@@ -5849,8 +6851,11 @@
       <c r="G141" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>136551174</v>
       </c>
@@ -5872,8 +6877,11 @@
       <c r="G142" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1452102353</v>
       </c>
@@ -5895,8 +6903,11 @@
       <c r="G143" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1173888746</v>
       </c>
@@ -5918,8 +6929,11 @@
       <c r="G144" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>25086949</v>
       </c>
@@ -5941,8 +6955,11 @@
       <c r="G145" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>340577258</v>
       </c>
@@ -5964,8 +6981,11 @@
       <c r="G146" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1485217446</v>
       </c>
@@ -5987,8 +7007,11 @@
       <c r="G147" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4621837</v>
       </c>
@@ -6010,8 +7033,11 @@
       <c r="G148" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>165269796</v>
       </c>
@@ -6033,8 +7059,11 @@
       <c r="G149" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>47190880</v>
       </c>
@@ -6056,8 +7085,11 @@
       <c r="G150" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>600049604</v>
       </c>
@@ -6079,8 +7111,11 @@
       <c r="G151" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2018286552</v>
       </c>
@@ -6102,8 +7137,11 @@
       <c r="G152" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>301138223</v>
       </c>
@@ -6125,8 +7163,11 @@
       <c r="G153" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1453199461</v>
       </c>
@@ -6148,8 +7189,11 @@
       <c r="G154" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>199937377</v>
       </c>
@@ -6171,8 +7215,11 @@
       <c r="G155" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>211158953</v>
       </c>
@@ -6194,8 +7241,11 @@
       <c r="G156" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>271562467</v>
       </c>
@@ -6217,8 +7267,11 @@
       <c r="G157" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>53501280</v>
       </c>
@@ -6240,8 +7293,11 @@
       <c r="G158" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1690741909</v>
       </c>
@@ -6263,8 +7319,11 @@
       <c r="G159" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>317818364</v>
       </c>
@@ -6286,8 +7345,11 @@
       <c r="G160" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1282155962</v>
       </c>
@@ -6309,8 +7371,11 @@
       <c r="G161" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1447302999</v>
       </c>
@@ -6332,8 +7397,11 @@
       <c r="G162" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1542380813</v>
       </c>
@@ -6355,8 +7423,11 @@
       <c r="G163" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>323419246</v>
       </c>
@@ -6378,8 +7449,11 @@
       <c r="G164" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1062207010</v>
       </c>
@@ -6401,8 +7475,11 @@
       <c r="G165" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>261766502</v>
       </c>
@@ -6424,8 +7501,11 @@
       <c r="G166" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>277875863</v>
       </c>
@@ -6447,8 +7527,11 @@
       <c r="G167" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>186778702</v>
       </c>
@@ -6470,8 +7553,11 @@
       <c r="G168" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>431811888</v>
       </c>
@@ -6493,8 +7579,11 @@
       <c r="G169" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>293720044</v>
       </c>
@@ -6516,8 +7605,11 @@
       <c r="G170" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169808445</v>
       </c>
@@ -6539,8 +7631,11 @@
       <c r="G171" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>181507452</v>
       </c>
@@ -6562,8 +7657,11 @@
       <c r="G172" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>514386663</v>
       </c>
@@ -6585,8 +7683,11 @@
       <c r="G173" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1430584463</v>
       </c>
@@ -6608,8 +7709,11 @@
       <c r="G174" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1450808630</v>
       </c>
@@ -6631,8 +7735,11 @@
       <c r="G175" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>207302282</v>
       </c>
@@ -6654,8 +7761,11 @@
       <c r="G176" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2389628095</v>
       </c>
@@ -6677,8 +7787,11 @@
       <c r="G177" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1381379875</v>
       </c>
@@ -6700,8 +7813,11 @@
       <c r="G178" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178031903</v>
       </c>
@@ -6723,8 +7839,11 @@
       <c r="G179" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>565785079</v>
       </c>
@@ -6746,8 +7865,11 @@
       <c r="G180" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>105244951</v>
       </c>
@@ -6769,8 +7891,11 @@
       <c r="G181" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1454842874</v>
       </c>
@@ -6792,8 +7917,11 @@
       <c r="G182" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>593029712</v>
       </c>
@@ -6815,8 +7943,11 @@
       <c r="G183" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1034365332</v>
       </c>
@@ -6838,8 +7969,11 @@
       <c r="G184" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>470806864</v>
       </c>
@@ -6858,8 +7992,11 @@
       <c r="F185" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>232876240</v>
       </c>
@@ -6881,8 +8018,11 @@
       <c r="G186" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>151885557</v>
       </c>
@@ -6904,8 +8044,11 @@
       <c r="G187" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>337920322</v>
       </c>
@@ -6927,8 +8070,11 @@
       <c r="G188" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>165088662</v>
       </c>
@@ -6950,8 +8096,11 @@
       <c r="G189" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1447393059</v>
       </c>
@@ -6973,8 +8122,11 @@
       <c r="G190" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1064692687</v>
       </c>
@@ -6996,8 +8148,11 @@
       <c r="G191" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1000721580</v>
       </c>
@@ -7019,8 +8174,11 @@
       <c r="G192" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>66404218</v>
       </c>
@@ -7042,8 +8200,11 @@
       <c r="G193" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>66288574</v>
       </c>
@@ -7065,8 +8226,11 @@
       <c r="G194" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>526807890</v>
       </c>
@@ -7088,8 +8252,11 @@
       <c r="G195" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>206813338</v>
       </c>
@@ -7111,8 +8278,11 @@
       <c r="G196" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>287197163</v>
       </c>
@@ -7134,8 +8304,11 @@
       <c r="G197" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>324279904</v>
       </c>
@@ -7157,8 +8330,11 @@
       <c r="G198" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>367093050</v>
       </c>
@@ -7180,8 +8356,11 @@
       <c r="G199" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>508791975</v>
       </c>
@@ -7203,8 +8382,11 @@
       <c r="G200" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>163733884</v>
       </c>
@@ -7226,8 +8408,11 @@
       <c r="G201" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1045329161</v>
       </c>
@@ -7249,8 +8434,11 @@
       <c r="G202" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>420553279</v>
       </c>
@@ -7272,8 +8460,11 @@
       <c r="G203" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>196205822</v>
       </c>
@@ -7295,8 +8486,11 @@
       <c r="G204" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>287029678</v>
       </c>
@@ -7318,8 +8512,11 @@
       <c r="G205" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>768924215</v>
       </c>
@@ -7341,8 +8538,11 @@
       <c r="G206" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>280333191</v>
       </c>
@@ -7364,8 +8564,11 @@
       <c r="G207" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>155523724</v>
       </c>
@@ -7387,8 +8590,11 @@
       <c r="G208" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1089018457</v>
       </c>
@@ -7410,8 +8616,11 @@
       <c r="G209" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>283174736</v>
       </c>
@@ -7433,8 +8642,11 @@
       <c r="G210" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>491946853</v>
       </c>
@@ -7456,8 +8668,11 @@
       <c r="G211" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>757367286</v>
       </c>
@@ -7479,8 +8694,11 @@
       <c r="G212" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>624101928</v>
       </c>
@@ -7502,8 +8720,11 @@
       <c r="G213" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>130484362</v>
       </c>
@@ -7525,8 +8746,11 @@
       <c r="G214" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>450512131</v>
       </c>
@@ -7548,8 +8772,11 @@
       <c r="G215" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>183117136</v>
       </c>
@@ -7571,8 +8798,11 @@
       <c r="G216" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>659377853</v>
       </c>
@@ -7594,8 +8824,11 @@
       <c r="G217" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>685286566</v>
       </c>
@@ -7617,8 +8850,11 @@
       <c r="G218" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>99920305</v>
       </c>
@@ -7640,8 +8876,11 @@
       <c r="G219" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>190304867</v>
       </c>
@@ -7663,8 +8902,11 @@
       <c r="G220" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>62758088</v>
       </c>
@@ -7686,8 +8928,11 @@
       <c r="G221" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>284855023</v>
       </c>
@@ -7709,8 +8954,11 @@
       <c r="G222" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1156310262</v>
       </c>
@@ -7732,8 +8980,11 @@
       <c r="G223" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>173167047</v>
       </c>
@@ -7755,8 +9006,11 @@
       <c r="G224" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1946020572</v>
       </c>
@@ -7778,8 +9032,11 @@
       <c r="G225" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>742328965</v>
       </c>
@@ -7801,8 +9058,11 @@
       <c r="G226" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>166607266</v>
       </c>
@@ -7824,8 +9084,11 @@
       <c r="G227" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1493086612</v>
       </c>
@@ -7847,8 +9110,11 @@
       <c r="G228" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1427325193</v>
       </c>
@@ -7870,8 +9136,11 @@
       <c r="G229" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1587747906</v>
       </c>
@@ -7893,8 +9162,11 @@
       <c r="G230" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1782346872</v>
       </c>
@@ -7916,8 +9188,11 @@
       <c r="G231" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>141137057</v>
       </c>
@@ -7939,8 +9214,11 @@
       <c r="G232" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2428615837</v>
       </c>
@@ -7962,8 +9240,11 @@
       <c r="G233" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>297607087</v>
       </c>
@@ -7985,8 +9266,11 @@
       <c r="G234" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>214152484</v>
       </c>
@@ -8008,8 +9292,11 @@
       <c r="G235" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>511670989</v>
       </c>
@@ -8031,8 +9318,11 @@
       <c r="G236" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>27190734</v>
       </c>
@@ -8054,8 +9344,11 @@
       <c r="G237" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>80016581</v>
       </c>
@@ -8077,8 +9370,11 @@
       <c r="G238" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>122211558</v>
       </c>
@@ -8100,8 +9396,11 @@
       <c r="G239" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>127894622</v>
       </c>
@@ -8123,8 +9422,11 @@
       <c r="G240" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>136382088</v>
       </c>
@@ -8146,8 +9448,11 @@
       <c r="G241" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>142704481</v>
       </c>
@@ -8169,8 +9474,11 @@
       <c r="G242" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>238863610</v>
       </c>
@@ -8192,8 +9500,11 @@
       <c r="G243" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>303120592</v>
       </c>
@@ -8215,8 +9526,11 @@
       <c r="G244" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>375366165</v>
       </c>
@@ -8238,8 +9552,11 @@
       <c r="G245" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>484123181</v>
       </c>
@@ -8261,8 +9578,11 @@
       <c r="G246" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>695303632</v>
       </c>
@@ -8284,8 +9604,11 @@
       <c r="G247" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>699370117</v>
       </c>
@@ -8307,8 +9630,11 @@
       <c r="G248" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>799601634</v>
       </c>
@@ -8330,8 +9656,11 @@
       <c r="G249" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1063208859</v>
       </c>
@@ -8353,8 +9682,11 @@
       <c r="G250" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1351369312</v>
       </c>
@@ -8376,8 +9708,11 @@
       <c r="G251" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1428326558</v>
       </c>
@@ -8399,8 +9734,11 @@
       <c r="G252" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1457793802</v>
       </c>
@@ -8422,8 +9760,11 @@
       <c r="G253" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1676657192</v>
       </c>
@@ -8445,8 +9786,11 @@
       <c r="G254" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1678670059</v>
       </c>
@@ -8468,8 +9812,11 @@
       <c r="G255" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1708497699</v>
       </c>
@@ -8491,8 +9838,11 @@
       <c r="G256" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1786835301</v>
       </c>
@@ -8514,8 +9864,11 @@
       <c r="G257" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1988790379</v>
       </c>
@@ -8537,8 +9890,11 @@
       <c r="G258" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2015935202</v>
       </c>
@@ -8560,8 +9916,11 @@
       <c r="G259" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2051821320</v>
       </c>
@@ -8583,8 +9942,11 @@
       <c r="G260" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2482396402</v>
       </c>
@@ -8606,8 +9968,11 @@
       <c r="G261" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2592935944</v>
       </c>
@@ -8629,8 +9994,11 @@
       <c r="G262" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2611596372</v>
       </c>
@@ -8652,8 +10020,11 @@
       <c r="G263" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>183279834</v>
       </c>
@@ -8675,8 +10046,11 @@
       <c r="G264" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>203572971</v>
       </c>
@@ -8698,8 +10072,11 @@
       <c r="G265" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>227193849</v>
       </c>
@@ -8721,8 +10098,11 @@
       <c r="G266" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>325501300</v>
       </c>
@@ -8744,8 +10124,11 @@
       <c r="G267" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>531618401</v>
       </c>
@@ -8767,8 +10150,11 @@
       <c r="G268" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>621237108</v>
       </c>
@@ -8790,8 +10176,11 @@
       <c r="G269" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>33691178</v>
       </c>
@@ -8813,8 +10202,11 @@
       <c r="G270" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>152152704</v>
       </c>
@@ -8836,8 +10228,11 @@
       <c r="G271" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>449187698</v>
       </c>
@@ -8859,8 +10254,11 @@
       <c r="G272" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1495326565</v>
       </c>
@@ -8882,8 +10280,11 @@
       <c r="G273" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>150876148</v>
       </c>
@@ -8905,8 +10306,11 @@
       <c r="G274" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>674606246</v>
       </c>
@@ -8928,8 +10332,11 @@
       <c r="G275" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>201818186</v>
       </c>
@@ -8951,8 +10358,11 @@
       <c r="G276" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>174783683</v>
       </c>
@@ -8974,8 +10384,11 @@
       <c r="G277" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>228286832</v>
       </c>
@@ -8997,8 +10410,11 @@
       <c r="G278" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>228129723</v>
       </c>
@@ -9020,8 +10436,11 @@
       <c r="G279" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>651524151</v>
       </c>
@@ -9043,8 +10462,11 @@
       <c r="G280" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1457459939</v>
       </c>
@@ -9066,8 +10488,11 @@
       <c r="G281" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1085104628</v>
       </c>
@@ -9089,8 +10514,11 @@
       <c r="G282" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>187985366</v>
       </c>
@@ -9112,8 +10540,11 @@
       <c r="G283" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1812821620</v>
       </c>
@@ -9135,8 +10566,11 @@
       <c r="G284" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2531061357</v>
       </c>
@@ -9158,8 +10592,11 @@
       <c r="G285" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>234543184</v>
       </c>
@@ -9181,8 +10618,11 @@
       <c r="G286" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2074482467</v>
       </c>
@@ -9204,8 +10644,11 @@
       <c r="G287" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1455578640</v>
       </c>
@@ -9227,8 +10670,11 @@
       <c r="G288" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1396932291</v>
       </c>
@@ -9250,8 +10696,11 @@
       <c r="G289" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1481531398</v>
       </c>
@@ -9273,8 +10722,11 @@
       <c r="G290" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1434769455</v>
       </c>
@@ -9296,8 +10748,11 @@
       <c r="G291" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1380412961</v>
       </c>
@@ -9319,8 +10774,11 @@
       <c r="G292" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>56815198</v>
       </c>
@@ -9342,8 +10800,11 @@
       <c r="G293" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>242105179</v>
       </c>
@@ -9365,8 +10826,11 @@
       <c r="G294" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>61249096</v>
       </c>
@@ -9388,8 +10852,11 @@
       <c r="G295" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>594475926</v>
       </c>
@@ -9411,8 +10878,11 @@
       <c r="G296" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>62381440</v>
       </c>
@@ -9434,8 +10904,11 @@
       <c r="G297" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>264616806</v>
       </c>
@@ -9457,8 +10930,11 @@
       <c r="G298" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>606319384</v>
       </c>
@@ -9480,8 +10956,11 @@
       <c r="G299" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>204139460</v>
       </c>
@@ -9503,8 +10982,11 @@
       <c r="G300" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>636693914</v>
       </c>
@@ -9526,8 +11008,11 @@
       <c r="G301" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1096521350</v>
       </c>
@@ -9549,8 +11034,11 @@
       <c r="G302" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1080122761</v>
       </c>
@@ -9572,8 +11060,11 @@
       <c r="G303" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>225367126</v>
       </c>
@@ -9595,8 +11086,11 @@
       <c r="G304" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1106563292</v>
       </c>
@@ -9618,8 +11112,11 @@
       <c r="G305" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>727809733</v>
       </c>
@@ -9641,8 +11138,11 @@
       <c r="G306" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>255589674</v>
       </c>
@@ -9664,8 +11164,11 @@
       <c r="G307" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1751948527</v>
       </c>
@@ -9687,8 +11190,11 @@
       <c r="G308" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1792689257</v>
       </c>
@@ -9710,8 +11216,11 @@
       <c r="G309" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1477337705</v>
       </c>
@@ -9733,8 +11242,11 @@
       <c r="G310" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1438028665</v>
       </c>
@@ -9756,8 +11268,11 @@
       <c r="G311" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>455002960</v>
       </c>
@@ -9779,8 +11294,11 @@
       <c r="G312" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>186556232</v>
       </c>
@@ -9802,8 +11320,11 @@
       <c r="G313" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>179601451</v>
       </c>
@@ -9825,8 +11346,11 @@
       <c r="G314" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>810419783</v>
       </c>
@@ -9848,8 +11372,11 @@
       <c r="G315" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>49721139</v>
       </c>
@@ -9871,8 +11398,11 @@
       <c r="G316" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1038382483</v>
       </c>
@@ -9894,8 +11424,11 @@
       <c r="G317" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>174150285</v>
       </c>
@@ -9917,8 +11450,11 @@
       <c r="G318" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>360964968</v>
       </c>
@@ -9940,8 +11476,11 @@
       <c r="G319" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>470068454</v>
       </c>
@@ -9963,8 +11502,11 @@
       <c r="G320" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>119053125</v>
       </c>
@@ -9986,8 +11528,11 @@
       <c r="G321" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1838483881</v>
       </c>
@@ -10009,8 +11554,11 @@
       <c r="G322" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>361899717</v>
       </c>
@@ -10032,8 +11580,11 @@
       <c r="G323" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>223453987</v>
       </c>
@@ -10055,8 +11606,11 @@
       <c r="G324" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>271356022</v>
       </c>
@@ -10078,8 +11632,11 @@
       <c r="G325" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>202376152</v>
       </c>
@@ -10101,8 +11658,11 @@
       <c r="G326" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>203435695</v>
       </c>
@@ -10124,8 +11684,11 @@
       <c r="G327" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>313555253</v>
       </c>
@@ -10147,8 +11710,11 @@
       <c r="G328" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>791280925</v>
       </c>
@@ -10170,8 +11736,11 @@
       <c r="G329" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>423827714</v>
       </c>
@@ -10193,8 +11762,11 @@
       <c r="G330" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>197237293</v>
       </c>
@@ -10216,8 +11788,11 @@
       <c r="G331" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>178198408</v>
       </c>
@@ -10239,8 +11814,11 @@
       <c r="G332" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>660319086</v>
       </c>
@@ -10262,8 +11840,11 @@
       <c r="G333" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>237886154</v>
       </c>
@@ -10285,8 +11866,11 @@
       <c r="G334" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>120188822</v>
       </c>
@@ -10308,8 +11892,11 @@
       <c r="G335" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>159272833</v>
       </c>
@@ -10331,8 +11918,11 @@
       <c r="G336" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>255011578</v>
       </c>
@@ -10354,8 +11944,11 @@
       <c r="G337" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>295506853</v>
       </c>
@@ -10377,8 +11970,11 @@
       <c r="G338" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1512186857</v>
       </c>
@@ -10400,8 +11996,11 @@
       <c r="G339" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1590205193</v>
       </c>
@@ -10423,8 +12022,11 @@
       <c r="G340" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>224832674</v>
       </c>
@@ -10446,8 +12048,11 @@
       <c r="G341" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>382848365</v>
       </c>
@@ -10469,8 +12074,11 @@
       <c r="G342" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>455839818</v>
       </c>
@@ -10492,8 +12100,11 @@
       <c r="G343" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>173037793</v>
       </c>
@@ -10515,8 +12126,11 @@
       <c r="G344" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>183967399</v>
       </c>
@@ -10538,8 +12152,11 @@
       <c r="G345" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>601159975</v>
       </c>
@@ -10561,8 +12178,11 @@
       <c r="G346" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>764038065</v>
       </c>
@@ -10584,8 +12204,11 @@
       <c r="G347" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>732472905</v>
       </c>
@@ -10607,8 +12230,11 @@
       <c r="G348" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>115429420</v>
       </c>
@@ -10630,8 +12256,11 @@
       <c r="G349" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>158469611</v>
       </c>
@@ -10653,8 +12282,11 @@
       <c r="G350" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1585403964</v>
       </c>
@@ -10676,8 +12308,11 @@
       <c r="G351" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1842769625</v>
       </c>
@@ -10699,8 +12334,11 @@
       <c r="G352" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>279034933</v>
       </c>
@@ -10722,8 +12360,11 @@
       <c r="G353" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1184554804</v>
       </c>
@@ -10745,8 +12386,11 @@
       <c r="G354" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>420307218</v>
       </c>
@@ -10768,8 +12412,11 @@
       <c r="G355" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>431214959</v>
       </c>
@@ -10791,8 +12438,11 @@
       <c r="G356" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1615862430</v>
       </c>
@@ -10814,8 +12464,11 @@
       <c r="G357" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>91941491</v>
       </c>
@@ -10837,8 +12490,11 @@
       <c r="G358" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>6876244</v>
       </c>
@@ -10860,8 +12516,11 @@
       <c r="G359" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1712443665</v>
       </c>
@@ -10883,8 +12542,11 @@
       <c r="G360" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1777894146</v>
       </c>
@@ -10906,8 +12568,11 @@
       <c r="G361" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>127073909</v>
       </c>
@@ -10929,8 +12594,11 @@
       <c r="G362" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1884853456</v>
       </c>
@@ -10952,8 +12620,11 @@
       <c r="G363" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1469409088</v>
       </c>
@@ -10975,8 +12646,11 @@
       <c r="G364" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2336669810</v>
       </c>
@@ -10998,8 +12672,11 @@
       <c r="G365" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1364804277</v>
       </c>
@@ -11021,8 +12698,11 @@
       <c r="G366" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>788763894</v>
       </c>
@@ -11044,8 +12724,11 @@
       <c r="G367" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>210962492</v>
       </c>
@@ -11067,8 +12750,11 @@
       <c r="G368" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2662787671</v>
       </c>
@@ -11081,7 +12767,7 @@
       <c r="D369" t="s">
         <v>4</v>
       </c>
-      <c r="E369" t="s">
+      <c r="E369" s="1" t="s">
         <v>365</v>
       </c>
       <c r="F369" t="s">
@@ -11090,8 +12776,11 @@
       <c r="G369" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>751415749</v>
       </c>
@@ -11113,8 +12802,11 @@
       <c r="G370" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>238910194</v>
       </c>
@@ -11136,8 +12828,11 @@
       <c r="G371" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>209463598</v>
       </c>
@@ -11159,8 +12854,11 @@
       <c r="G372" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>488851324</v>
       </c>
@@ -11179,8 +12877,11 @@
       <c r="G373" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2490611911</v>
       </c>
@@ -11202,8 +12903,11 @@
       <c r="G374" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1477497679</v>
       </c>
@@ -11225,8 +12929,11 @@
       <c r="G375" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>555414187</v>
       </c>
@@ -11248,8 +12955,11 @@
       <c r="G376" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1236298302</v>
       </c>
@@ -11271,8 +12981,11 @@
       <c r="G377" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1245410086</v>
       </c>
@@ -11291,8 +13004,11 @@
       <c r="G378" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1231808348</v>
       </c>
@@ -11314,8 +13030,11 @@
       <c r="G379" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1406524799</v>
       </c>
@@ -11334,8 +13053,11 @@
       <c r="G380" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1464475202</v>
       </c>
@@ -11357,8 +13079,11 @@
       <c r="G381" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1342859483</v>
       </c>
@@ -11380,8 +13105,11 @@
       <c r="G382" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1317961778</v>
       </c>
@@ -11403,8 +13131,11 @@
       <c r="G383" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1286635153</v>
       </c>
@@ -11423,8 +13154,11 @@
       <c r="G384" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1445776663</v>
       </c>
@@ -11446,8 +13180,11 @@
       <c r="G385" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1211756872</v>
       </c>
@@ -11469,8 +13206,11 @@
       <c r="G386" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1207675246</v>
       </c>
@@ -11492,8 +13232,11 @@
       <c r="G387" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1422846329</v>
       </c>
@@ -11515,8 +13258,11 @@
       <c r="G388" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>76331531</v>
       </c>
@@ -11538,8 +13284,11 @@
       <c r="G389" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>322502351</v>
       </c>
@@ -11561,8 +13310,11 @@
       <c r="G390" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1375138586</v>
       </c>
@@ -11584,8 +13336,11 @@
       <c r="G391" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1366151811</v>
       </c>
@@ -11607,8 +13362,11 @@
       <c r="G392" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1249172900</v>
       </c>
@@ -11630,8 +13388,11 @@
       <c r="G393" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1478114661</v>
       </c>
@@ -11650,8 +13411,11 @@
       <c r="G394" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1231576803</v>
       </c>
@@ -11673,8 +13437,11 @@
       <c r="G395" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1251879558</v>
       </c>
@@ -11696,8 +13463,11 @@
       <c r="G396" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2345017244</v>
       </c>
@@ -11716,8 +13486,11 @@
       <c r="G397" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1453452471</v>
       </c>
@@ -11739,8 +13512,11 @@
       <c r="G398" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1161200505</v>
       </c>
@@ -11762,8 +13538,11 @@
       <c r="G399" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>268850426</v>
       </c>
@@ -11785,8 +13564,11 @@
       <c r="G400" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1426808500</v>
       </c>
@@ -11808,8 +13590,11 @@
       <c r="G401" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1114585317</v>
       </c>
@@ -11831,8 +13616,11 @@
       <c r="G402" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1370750164</v>
       </c>
@@ -11854,8 +13642,11 @@
       <c r="G403" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>251645009</v>
       </c>
@@ -11877,8 +13668,11 @@
       <c r="G404" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>263391604</v>
       </c>
@@ -11900,8 +13694,11 @@
       <c r="G405" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1469910364</v>
       </c>
@@ -11920,8 +13717,11 @@
       <c r="G406" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>199199140</v>
       </c>
@@ -11943,8 +13743,11 @@
       <c r="G407" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1461583629</v>
       </c>
@@ -11966,8 +13769,11 @@
       <c r="G408" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1159690723</v>
       </c>
@@ -11986,8 +13792,11 @@
       <c r="G409" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1387667693</v>
       </c>
@@ -12009,8 +13818,11 @@
       <c r="G410" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H410" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1424070748</v>
       </c>
@@ -12032,8 +13844,11 @@
       <c r="G411" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H411" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>15665498</v>
       </c>
@@ -12055,8 +13870,11 @@
       <c r="G412" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1446287023</v>
       </c>
@@ -12078,8 +13896,11 @@
       <c r="G413" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>268300847</v>
       </c>
@@ -12101,8 +13922,11 @@
       <c r="G414" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H414" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>798617488</v>
       </c>
@@ -12124,8 +13948,11 @@
       <c r="G415" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H415" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>678610452</v>
       </c>
@@ -12147,8 +13974,11 @@
       <c r="G416" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H416" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2457362902</v>
       </c>
@@ -12167,8 +13997,11 @@
       <c r="G417" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H417" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>330532268</v>
       </c>
@@ -12187,8 +14020,11 @@
       <c r="G418" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H418" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>149518102</v>
       </c>
@@ -12210,8 +14046,11 @@
       <c r="G419" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H419" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1420365380</v>
       </c>
@@ -12233,8 +14072,11 @@
       <c r="G420" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H420" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1185718745</v>
       </c>
@@ -12256,8 +14098,11 @@
       <c r="G421" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H421" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1434694534</v>
       </c>
@@ -12276,8 +14121,11 @@
       <c r="G422" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H422" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2569994453</v>
       </c>
@@ -12296,8 +14144,11 @@
       <c r="G423" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H423" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1365706499</v>
       </c>
@@ -12319,8 +14170,11 @@
       <c r="G424" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H424" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1434918733</v>
       </c>
@@ -12342,8 +14196,11 @@
       <c r="G425" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H425" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1451916544</v>
       </c>
@@ -12365,8 +14222,11 @@
       <c r="G426" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H426" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1482183974</v>
       </c>
@@ -12388,8 +14248,11 @@
       <c r="G427" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H427" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2351879503</v>
       </c>
@@ -12408,8 +14271,11 @@
       <c r="G428" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H428" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1514602500</v>
       </c>
@@ -12428,8 +14294,11 @@
       <c r="G429" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H429" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2313173800</v>
       </c>
@@ -12448,8 +14317,11 @@
       <c r="G430" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H430" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>547239300</v>
       </c>
@@ -12471,8 +14343,11 @@
       <c r="G431" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H431" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1427776750</v>
       </c>
@@ -12491,48 +14366,13 @@
       <c r="G432" t="s">
         <v>715</v>
       </c>
+      <c r="H432" t="s">
+        <v>715</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G432" xr:uid="{11B52E43-DB06-415B-8120-31B874E56436}"/>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{6444882A-85D8-4A1D-B489-AAD91B39F039}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{19AA6C44-D22D-435D-806F-1A78FC583F5C}"/>
-    <hyperlink ref="E61" r:id="rId3" xr:uid="{EDC26D40-B69A-482C-BA72-6B077706CEF5}"/>
-    <hyperlink ref="E92" r:id="rId4" xr:uid="{E4C647B9-B796-48E0-8295-289A5CC853F5}"/>
-    <hyperlink ref="E107" r:id="rId5" xr:uid="{26C64020-85DB-4BA5-821E-7DCC665FF261}"/>
-    <hyperlink ref="E152" r:id="rId6" xr:uid="{AA832CE8-1AF1-4806-BAFA-1C5F514452D0}"/>
-    <hyperlink ref="E169" r:id="rId7" xr:uid="{82BB0CAB-D178-447D-B289-F932832D4C11}"/>
-    <hyperlink ref="E185" r:id="rId8" xr:uid="{D4E96C74-0043-42A2-967C-C76F374A584E}"/>
-    <hyperlink ref="E193" r:id="rId9" xr:uid="{06ADD04D-34B6-4344-89F6-66C1FB562D43}"/>
-    <hyperlink ref="E196" r:id="rId10" xr:uid="{EB80A767-9111-43C8-B95C-21709F4611AB}"/>
-    <hyperlink ref="E199" r:id="rId11" xr:uid="{FF74FC1B-BA95-4BFC-A7A0-983D38792770}"/>
-    <hyperlink ref="E221" r:id="rId12" xr:uid="{279B98C3-A071-4F7B-9145-269604433194}"/>
-    <hyperlink ref="E231" r:id="rId13" xr:uid="{E048D370-54F8-4602-B225-A3DD3D5320BF}"/>
-    <hyperlink ref="E232" r:id="rId14" xr:uid="{7F8D861F-EB0A-43FA-B0FB-A5915723CE6A}"/>
-    <hyperlink ref="E246" r:id="rId15" xr:uid="{5B871C59-D720-40E8-B9AE-874441FFABE9}"/>
-    <hyperlink ref="E271" r:id="rId16" xr:uid="{A0D762F4-D6C6-4391-8EB6-DE8C385C3DD4}"/>
-    <hyperlink ref="E272" r:id="rId17" xr:uid="{38D4CBE0-1D7D-4A4E-9244-D9A629FA4557}"/>
-    <hyperlink ref="E275" r:id="rId18" xr:uid="{708EC06E-407E-426D-9344-54D9D8864253}"/>
-    <hyperlink ref="E279" r:id="rId19" xr:uid="{035DACCF-088A-40E9-9BC1-5518A1775A74}"/>
-    <hyperlink ref="E282" r:id="rId20" xr:uid="{EA6FBB6D-E67A-4F36-847A-535AA477FD7A}"/>
-    <hyperlink ref="E284" r:id="rId21" xr:uid="{195FCFBD-F7B0-47A9-AB32-C416600759B7}"/>
-    <hyperlink ref="E306" r:id="rId22" xr:uid="{7B6712E3-67D7-4FC9-8B31-8B0B55F83C06}"/>
-    <hyperlink ref="E310" r:id="rId23" xr:uid="{A2A09F74-DB9C-48A1-B122-31B4EFFBEE1A}"/>
-    <hyperlink ref="E312" r:id="rId24" xr:uid="{200CC165-3338-486C-BCA1-073BEFE19948}"/>
-    <hyperlink ref="E314" r:id="rId25" xr:uid="{0E76B72D-229F-4490-9A8E-102EEACF5A41}"/>
-    <hyperlink ref="E315" r:id="rId26" xr:uid="{D03493A4-DE7B-4623-8FEA-A9BDBF56F144}"/>
-    <hyperlink ref="E330" r:id="rId27" xr:uid="{BD7E5B8C-6F50-4BEF-A77E-47E8B668A35A}"/>
-    <hyperlink ref="E334" r:id="rId28" xr:uid="{6AA67AA3-983C-4613-81C4-DE7FCD5392CE}"/>
-    <hyperlink ref="E345" r:id="rId29" xr:uid="{9C87DEE5-0C6D-40A9-BD0C-9113B246E57A}"/>
-    <hyperlink ref="E364" r:id="rId30" xr:uid="{B3851BC0-4AEF-4540-B37F-1E9FA59D81EB}"/>
-    <hyperlink ref="E369" r:id="rId31" xr:uid="{12AAF628-31CC-42AD-BC44-2AD162C3A94B}"/>
-    <hyperlink ref="E372" r:id="rId32" xr:uid="{544F5B7B-986C-4452-8450-55420F6F6EF1}"/>
-    <hyperlink ref="E382" r:id="rId33" xr:uid="{DC4ED502-4CE6-41BA-9173-311CC6260C4C}"/>
-    <hyperlink ref="E393" r:id="rId34" xr:uid="{250E13BD-97B6-4A3B-9D37-E6E643656833}"/>
-    <hyperlink ref="E400" r:id="rId35" xr:uid="{CC3940D2-5B0E-468C-872A-0C008866F0F9}"/>
-    <hyperlink ref="E404" r:id="rId36" xr:uid="{307A80B9-6BD2-4A72-AAF5-83D9CFC1A916}"/>
-    <hyperlink ref="E413" r:id="rId37" xr:uid="{62FD681E-F3E7-4707-8582-9FC6943F7FF4}"/>
-    <hyperlink ref="E9" r:id="rId38" xr:uid="{98F17F81-B68A-4D70-A8A7-ABBFAB69D89B}"/>
+    <hyperlink ref="E369" r:id="rId1" xr:uid="{336F910D-4819-4201-9A32-63AA07288875}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/cadastro_grupos/Share of Voice - Grupos_TRATADO.xlsx
+++ b/cadastro_grupos/Share of Voice - Grupos_TRATADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suporte\Desktop\whatsapp\cadastro_grupos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA7C39-C7AA-494E-8ED7-8DBE001D7AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9720516-A6A9-42CA-8569-47F7B17E1301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF832B84-765A-4C96-AABE-F181674363E1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="917">
   <si>
     <t>cust_id</t>
   </si>
@@ -2795,6 +2795,9 @@
   </si>
   <si>
     <t>Manual de Ofertas - Eletrônicos</t>
+  </si>
+  <si>
+    <t>É de casa da Ofertinha 🛒🛒🛒</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3183,7 @@
   <dimension ref="A1:H432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12569,7 +12572,7 @@
         <v>688</v>
       </c>
       <c r="H361" t="s">
-        <v>715</v>
+        <v>916</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -12774,7 +12777,7 @@
         <v>8</v>
       </c>
       <c r="G369" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="H369" t="s">
         <v>900</v>
@@ -14375,5 +14378,6 @@
     <hyperlink ref="E369" r:id="rId1" xr:uid="{336F910D-4819-4201-9A32-63AA07288875}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="121" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
 </worksheet>
 </file>